--- a/dataset/tourist_info/Tourist_by_age.xlsx
+++ b/dataset/tourist_info/Tourist_by_age.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">กลุ่มอายุ</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">65 และมากกว่า</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,215,</t>
   </si>
 </sst>
 </file>
@@ -52,7 +49,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -120,7 +117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,6 +127,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,13 +154,13 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -198,7 +199,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -233,7 +234,7 @@
         <v>5452722</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -268,7 +269,7 @@
         <v>9593173</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -303,7 +304,7 @@
         <v>5821235</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -338,7 +339,7 @@
         <v>5367091</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -404,8 +405,8 @@
       <c r="J7" s="2" t="n">
         <v>1794395</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>7</v>
+      <c r="K7" s="3" t="n">
+        <v>2215050</v>
       </c>
     </row>
   </sheetData>
